--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Tff3</t>
+  </si>
+  <si>
+    <t>Cxcr4</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Tff3</t>
-  </si>
-  <si>
-    <t>Cxcr4</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7901163333333333</v>
+        <v>0.2167346666666667</v>
       </c>
       <c r="H2">
-        <v>2.370349</v>
+        <v>0.650204</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>224.2321046666666</v>
+        <v>13.35941066666667</v>
       </c>
       <c r="N2">
-        <v>672.6963139999999</v>
+        <v>40.078232</v>
       </c>
       <c r="O2">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="P2">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="Q2">
-        <v>177.1694483548428</v>
+        <v>2.895447417703111</v>
       </c>
       <c r="R2">
-        <v>1594.525035193586</v>
+        <v>26.059026759328</v>
       </c>
       <c r="S2">
-        <v>0.9009864013525986</v>
+        <v>0.4925555025958562</v>
       </c>
       <c r="T2">
-        <v>0.9009864013525987</v>
+        <v>0.4925555025958562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7901163333333333</v>
+        <v>0.2167346666666667</v>
       </c>
       <c r="H3">
-        <v>2.370349</v>
+        <v>0.650204</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>3.071113</v>
       </c>
       <c r="O3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="P3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="Q3">
-        <v>0.8088455142707778</v>
+        <v>0.2218722174502222</v>
       </c>
       <c r="R3">
-        <v>7.279609628437</v>
+        <v>1.996849957052</v>
       </c>
       <c r="S3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
       <c r="T3">
-        <v>0.004113343558497904</v>
+        <v>0.03774352140193379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,19 +649,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7901163333333333</v>
+        <v>0.2167346666666667</v>
       </c>
       <c r="H4">
-        <v>2.370349</v>
+        <v>0.650204</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.61820766666667</v>
+        <v>12.73953533333333</v>
       </c>
       <c r="N4">
-        <v>70.854623</v>
+        <v>38.218606</v>
       </c>
       <c r="O4">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="P4">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
       <c r="Q4">
-        <v>18.66113164149189</v>
+        <v>2.761098943958222</v>
       </c>
       <c r="R4">
-        <v>167.950184773427</v>
+        <v>24.849890495624</v>
       </c>
       <c r="S4">
-        <v>0.09490025508890343</v>
+        <v>0.4697009760022101</v>
       </c>
       <c r="T4">
-        <v>0.09490025508890343</v>
+        <v>0.46970097600221</v>
       </c>
     </row>
   </sheetData>
